--- a/data/trans_bre/VUL_INSOM-Edad-trans_bre.xlsx
+++ b/data/trans_bre/VUL_INSOM-Edad-trans_bre.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -541,22 +541,22 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="E2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="F2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
         </is>
       </c>
     </row>
@@ -571,7 +571,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>16/24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -581,22 +581,22 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-0,38</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,07</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-33,5%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,9%</t>
         </is>
       </c>
     </row>
@@ -609,12 +609,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,9; 1,41</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,18; 1,33</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -631,7 +631,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>25/34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -641,22 +641,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,91</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,02</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>187,27%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>431,23%</t>
         </is>
       </c>
     </row>
@@ -669,17 +669,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,3; 2,69</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,07; 3,02</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>35/44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -701,22 +701,22 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,73</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,7</t>
+          <t>1,83</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>42,51%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>172,51%</t>
         </is>
       </c>
     </row>
@@ -729,29 +729,29 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,97; 2,51</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,92; 0,0</t>
+          <t>0,16; 4,23</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-45,86; 262,12</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,35; 1212,99</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>45/54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -761,22 +761,22 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-0,05</t>
+          <t>2,19</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,07</t>
+          <t>3,28</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-4,43%</t>
+          <t>84,14%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>7,35%</t>
+          <t>221,54%</t>
         </is>
       </c>
     </row>
@@ -789,29 +789,29 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,82; 1,47</t>
+          <t>0,23; 4,21</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,21; 1,49</t>
+          <t>0,93; 5,8</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,72; 210,15</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-82,68; 470,43</t>
+          <t>11,75; 656,78</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>55/64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -821,22 +821,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,83</t>
+          <t>1,61</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,82</t>
+          <t>3,63</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>295,56%</t>
+          <t>35,14%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>158,06%</t>
+          <t>94,61%</t>
         </is>
       </c>
     </row>
@@ -849,29 +849,29 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,26; 2,44</t>
+          <t>-0,98; 3,88</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,32; 2,19</t>
+          <t>0,35; 6,89</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,66; 110,85</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-68,61; 1455,92</t>
+          <t>1,38; 280,75</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>65/74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -881,22 +881,22 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>2,15</t>
+          <t>5,24</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,31</t>
+          <t>5,74</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>239,74%</t>
+          <t>75,02%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>13,79%</t>
+          <t>145,69%</t>
         </is>
       </c>
     </row>
@@ -909,29 +909,29 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,42; 4,26</t>
+          <t>1,91; 9,07</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-1,66; 2,16</t>
+          <t>2,69; 8,95</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-18,32; 1028,99</t>
+          <t>20,51; 176,18</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-53,37; 152,03</t>
+          <t>47,33; 310,74</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>75 y más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -941,22 +941,22 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>2,92</t>
+          <t>8,63</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>2,48</t>
+          <t>3,83</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>185,07%</t>
+          <t>73,73%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>108,59%</t>
+          <t>45,49%</t>
         </is>
       </c>
     </row>
@@ -969,29 +969,29 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,83; 5,23</t>
+          <t>4,25; 12,67</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,81; 4,33</t>
+          <t>-0,1; 7,51</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>21,49; 641,04</t>
+          <t>28,73; 132,37</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>22,18; 267,89</t>
+          <t>-1,35; 113,47</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B18" s="3" t="inlineStr">
@@ -1001,22 +1001,22 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>3,39</t>
+          <t>3,57</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>0,95</t>
+          <t>3,06</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>80,59%</t>
+          <t>80,6%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>19,82%</t>
+          <t>119,94%</t>
         </is>
       </c>
     </row>
@@ -1029,222 +1029,39 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0,05; 6,88</t>
+          <t>2,49; 4,79</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-1,28; 2,86</t>
+          <t>1,99; 4,07</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-0,05; 295,48</t>
+          <t>49,7; 118,6</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-21,55; 74,76</t>
+          <t>65,23; 177,47</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>65/74</t>
-        </is>
-      </c>
-      <c r="B20" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>5,74</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>5,32</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>131,35%</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>95,29%</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n"/>
-      <c r="B21" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>2,78; 9,04</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>2,42; 8,13</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>47,73; 295,6</t>
-        </is>
-      </c>
-      <c r="F21" s="2" t="inlineStr">
-        <is>
-          <t>32,27; 184,89</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>75 y más</t>
-        </is>
-      </c>
-      <c r="B22" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>4,81</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>9,46</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>55,25%</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>91,86%</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n"/>
-      <c r="B23" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>1,11; 8,97</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>5,97; 12,78</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>9,78; 134,87</t>
-        </is>
-      </c>
-      <c r="F23" s="2" t="inlineStr">
-        <is>
-          <t>47,12; 148,97</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>3,21</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>3,19</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>95,69%</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>89,54%</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>2,07; 4,19</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>2,34; 4,07</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>52,02; 142,83</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>60,63; 128,55</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Determinantes Ambientales de la Salud: proyecto multicéntrico a partir de Encuestas Poblacionales de la salud (proyecto DAS-EP, EXPEDIENTE ISCIII - PI22/01051 y PI22/00512)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="11">
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A22:A23"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A20:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A6:A7"/>

--- a/data/trans_bre/VUL_INSOM-Edad-trans_bre.xlsx
+++ b/data/trans_bre/VUL_INSOM-Edad-trans_bre.xlsx
@@ -581,7 +581,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-0,38</t>
+          <t>-0,35</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -591,7 +591,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-33,5%</t>
+          <t>-46,26%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -609,7 +609,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,9; 1,41</t>
+          <t>-1,35; 0,56</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -641,7 +641,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,91</t>
+          <t>0,71</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -651,7 +651,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>187,27%</t>
+          <t>191,63%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -669,7 +669,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,3; 2,69</t>
+          <t>-0,25; 1,95</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -679,7 +679,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -701,7 +701,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,73</t>
+          <t>-0,1</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>42,51%</t>
+          <t>-4,96%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -729,7 +729,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,97; 2,51</t>
+          <t>-2,05; 1,5</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-45,86; 262,12</t>
+          <t>-62,27; 151,79</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -761,7 +761,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2,19</t>
+          <t>1,34</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -771,7 +771,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>84,14%</t>
+          <t>50,32%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -789,7 +789,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,23; 4,21</t>
+          <t>-0,21; 3,22</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -799,7 +799,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,72; 210,15</t>
+          <t>-8,26; 166,7</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -821,7 +821,7 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>1,61</t>
+          <t>2,37</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>35,14%</t>
+          <t>64,63%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -849,7 +849,7 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,98; 3,88</t>
+          <t>0,19; 4,5</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
@@ -859,7 +859,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-16,66; 110,85</t>
+          <t>1,81; 152,12</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -881,7 +881,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>5,24</t>
+          <t>4,47</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -891,7 +891,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>75,02%</t>
+          <t>62,03%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -909,7 +909,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1,91; 9,07</t>
+          <t>1,04; 7,85</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>20,51; 176,18</t>
+          <t>11,32; 135,39</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>8,63</t>
+          <t>9,34</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -951,7 +951,7 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>73,73%</t>
+          <t>82,28%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -969,7 +969,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>4,25; 12,67</t>
+          <t>4,79; 13,29</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>28,73; 132,37</t>
+          <t>31,91; 141,24</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1001,7 +1001,7 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>3,57</t>
+          <t>3,38</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
@@ -1011,7 +1011,7 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>80,6%</t>
+          <t>83,43%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
@@ -1029,7 +1029,7 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>2,49; 4,79</t>
+          <t>2,39; 4,37</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>49,7; 118,6</t>
+          <t>51,81; 120,89</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">

--- a/data/trans_bre/VUL_INSOM-Edad-trans_bre.xlsx
+++ b/data/trans_bre/VUL_INSOM-Edad-trans_bre.xlsx
@@ -541,22 +541,22 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="E2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="F2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
         </is>
       </c>
     </row>
@@ -581,22 +581,22 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>0,07</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
           <t>-0,35</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>0,07</t>
-        </is>
-      </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
+          <t>9,9%</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>-46,26%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>9,9%</t>
         </is>
       </c>
     </row>
@@ -609,12 +609,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>-1,18; 1,33</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
           <t>-1,35; 0,56</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-1,18; 1,33</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -641,22 +641,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>1,02</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
           <t>0,71</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>1,02</t>
-        </is>
-      </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
+          <t>431,23%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>191,63%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>431,23%</t>
         </is>
       </c>
     </row>
@@ -669,12 +669,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>0,07; 3,02</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
           <t>-0,25; 1,95</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>0,07; 3,02</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -701,22 +701,22 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>1,83</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
           <t>-0,1</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>1,83</t>
-        </is>
-      </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
+          <t>172,51%</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>-4,96%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>172,51%</t>
         </is>
       </c>
     </row>
@@ -729,22 +729,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>0,16; 4,23</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
           <t>-2,05; 1,5</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>0,16; 4,23</t>
-        </is>
-      </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
+          <t>-19,35; 1212,99</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
           <t>-62,27; 151,79</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-19,35; 1212,99</t>
         </is>
       </c>
     </row>
@@ -761,22 +761,22 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>3,28</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
           <t>1,34</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>3,28</t>
-        </is>
-      </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
+          <t>221,54%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>50,32%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>221,54%</t>
         </is>
       </c>
     </row>
@@ -789,22 +789,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>0,93; 5,8</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
           <t>-0,21; 3,22</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>0,93; 5,8</t>
-        </is>
-      </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
+          <t>11,75; 656,78</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
           <t>-8,26; 166,7</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>11,75; 656,78</t>
         </is>
       </c>
     </row>
@@ -821,22 +821,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>3,63</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
           <t>2,37</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>3,63</t>
-        </is>
-      </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
+          <t>94,61%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>64,63%</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>94,61%</t>
         </is>
       </c>
     </row>
@@ -849,22 +849,22 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>0,35; 6,89</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
           <t>0,19; 4,5</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>0,35; 6,89</t>
-        </is>
-      </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
+          <t>1,38; 280,75</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
           <t>1,81; 152,12</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>1,38; 280,75</t>
         </is>
       </c>
     </row>
@@ -881,22 +881,22 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>5,74</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
           <t>4,47</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>5,74</t>
-        </is>
-      </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
+          <t>145,69%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>62,03%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>145,69%</t>
         </is>
       </c>
     </row>
@@ -909,22 +909,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>2,69; 8,95</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
           <t>1,04; 7,85</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>2,69; 8,95</t>
-        </is>
-      </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
+          <t>47,33; 310,74</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
           <t>11,32; 135,39</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>47,33; 310,74</t>
         </is>
       </c>
     </row>
@@ -941,22 +941,22 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>3,83</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
           <t>9,34</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>3,83</t>
-        </is>
-      </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
+          <t>45,49%</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
           <t>82,28%</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>45,49%</t>
         </is>
       </c>
     </row>
@@ -969,22 +969,22 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>-0,1; 7,51</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
           <t>4,79; 13,29</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-0,1; 7,51</t>
-        </is>
-      </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
+          <t>-1,35; 113,47</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
           <t>31,91; 141,24</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>-1,35; 113,47</t>
         </is>
       </c>
     </row>
@@ -1001,22 +1001,22 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>3,06</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
           <t>3,38</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>3,06</t>
-        </is>
-      </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
+          <t>119,94%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
           <t>83,43%</t>
-        </is>
-      </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>119,94%</t>
         </is>
       </c>
     </row>
@@ -1029,22 +1029,22 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
+          <t>1,99; 4,07</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
           <t>2,39; 4,37</t>
         </is>
       </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>1,99; 4,07</t>
-        </is>
-      </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
+          <t>65,23; 177,47</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
           <t>51,81; 120,89</t>
-        </is>
-      </c>
-      <c r="F19" s="2" t="inlineStr">
-        <is>
-          <t>65,23; 177,47</t>
         </is>
       </c>
     </row>
